--- a/Rad_Janaúba.xlsx
+++ b/Rad_Janaúba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog-\OneDrive\Área de Trabalho\Anderson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amiun\Desktop\ProjetoGit\Doutorado\Download_Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F935153C2A872B1973C29334B6CA7CB23A7A629B" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F0B16A85-B851-495C-9A17-9CF3DDED2316}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBD55B-DBAA-4060-A3AE-7CAA34CD08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Radiação</t>
+    <t>Radiação_MG</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -148,7 +148,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radiação</c:v>
+                  <c:v>Radiação_MG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3352,7 +3352,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1977737135"/>
@@ -3411,7 +3411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="341358879"/>
@@ -3459,7 +3459,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4335,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="S385" sqref="S385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
